--- a/data/teachers.xlsx
+++ b/data/teachers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="732">
   <si>
     <t>#</t>
   </si>
@@ -2214,6 +2214,15 @@
   </si>
   <si>
     <t>Отдел общего фортепиано;Инструменты эстрадного оркестра;Фортепиано;Хоровое пение;Музыкальный фольклор</t>
+  </si>
+  <si>
+    <t>Вид работы</t>
+  </si>
+  <si>
+    <t>Основная</t>
+  </si>
+  <si>
+    <t>По совместительству</t>
   </si>
 </sst>
 </file>
@@ -2553,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N22" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView tabSelected="1" topLeftCell="T58" workbookViewId="0">
+      <selection activeCell="X93" sqref="X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,17 +2582,20 @@
     <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="109.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="56.85546875" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="85.5703125" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2627,34 +2639,37 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2694,32 +2709,35 @@
         <v>45</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>1409654912</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2755,28 +2773,31 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>1598602572</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2816,32 +2837,31 @@
         <v>17</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>1442328665</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2881,28 +2901,31 @@
         <v>4</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>1387906082</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2942,34 +2965,33 @@
         <v>88</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>67192583</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>1390123329</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3009,28 +3031,31 @@
         <v>123</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>1391167225</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3070,28 +3095,31 @@
         <v>19</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>1382614372</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3131,34 +3159,37 @@
         <v>130</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>1409665101</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3196,32 +3227,35 @@
         <v>79</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>1326459206</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3261,34 +3295,33 @@
         <v>98</v>
       </c>
       <c r="O11" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>262710</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>1389791466</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3330,34 +3363,33 @@
         <v>37</v>
       </c>
       <c r="O12" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>1377864231</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3395,28 +3427,31 @@
         <v>205</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>1598965229</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3456,34 +3491,37 @@
         <v>108</v>
       </c>
       <c r="O14" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>123456789</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>1387873419</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3523,34 +3561,33 @@
         <v>119</v>
       </c>
       <c r="O15" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>1388138944</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3592,28 +3629,31 @@
         <v>14</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>19212706</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>1337360354</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="U16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3655,34 +3695,33 @@
         <v>102</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>1331890843</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3720,26 +3759,29 @@
         <v>62</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>1567493098</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="V18" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3777,28 +3819,31 @@
         <v>52</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>1476446455</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3840,28 +3885,31 @@
         <v>104</v>
       </c>
       <c r="O20" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>1391857279</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="U20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3903,32 +3951,35 @@
         <v>81</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>753951</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <v>1332093651</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="U21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3966,28 +4017,31 @@
         <v>168</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>1582279658</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="U22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4031,34 +4085,33 @@
         <v>63</v>
       </c>
       <c r="O23" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <v>1346604282</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4098,26 +4151,29 @@
         <v>39</v>
       </c>
       <c r="O24" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>1440670666</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="U24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4159,28 +4215,31 @@
         <v>56</v>
       </c>
       <c r="O25" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>123456</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>1472826983</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4222,34 +4281,33 @@
         <v>84</v>
       </c>
       <c r="O26" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>123456</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>1332175479</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="T26" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4287,34 +4345,37 @@
         <v>76</v>
       </c>
       <c r="O27" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>1409401059</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="T27" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="U27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="V27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="W27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="X27" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4352,28 +4413,31 @@
         <v>161</v>
       </c>
       <c r="O28" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P28" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>1566219998</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="T28" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="U28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="V28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4415,34 +4479,37 @@
         <v>75</v>
       </c>
       <c r="O29" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>1390710931</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4482,34 +4549,37 @@
         <v>85</v>
       </c>
       <c r="O30" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P30" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>1389200028</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="U30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="V30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V30" s="4" t="s">
+      <c r="W30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="X30" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4549,28 +4619,31 @@
         <v>29</v>
       </c>
       <c r="O31" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <v>5081961</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <v>1348646869</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T31" s="4" t="s">
+      <c r="U31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="V31" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4610,28 +4683,31 @@
         <v>3</v>
       </c>
       <c r="O32" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>1349808633</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="U32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="V32" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4669,34 +4745,37 @@
         <v>97</v>
       </c>
       <c r="O33" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>1389084668</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="T33" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="U33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="V33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="X33" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4734,34 +4813,33 @@
         <v>112</v>
       </c>
       <c r="O34" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P34" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>914538</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>1504527381</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="T34" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="T34" s="4" t="s">
+      <c r="U34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="V34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4801,34 +4879,33 @@
         <v>8</v>
       </c>
       <c r="O35" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P35" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>1338649019</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="T35" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="T35" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U35" s="4" t="s">
+      <c r="V35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4868,28 +4945,31 @@
         <v>46</v>
       </c>
       <c r="O36" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P36" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>1410426725</v>
       </c>
-      <c r="S36" s="4" t="s">
+      <c r="T36" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T36" s="4" t="s">
+      <c r="U36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="4" t="s">
+      <c r="V36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4929,34 +5009,33 @@
         <v>6</v>
       </c>
       <c r="O37" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P37" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>123456</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>1399894667</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="T37" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="T37" s="4" t="s">
+      <c r="U37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U37" s="4" t="s">
+      <c r="V37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4994,28 +5073,31 @@
         <v>206</v>
       </c>
       <c r="O38" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>1603116911</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="T38" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="U38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="V38" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5055,34 +5137,33 @@
         <v>134</v>
       </c>
       <c r="O39" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P39" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <v>1449614294</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="T39" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="T39" s="4" t="s">
+      <c r="U39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U39" s="4" t="s">
+      <c r="V39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5124,26 +5205,29 @@
         <v>44</v>
       </c>
       <c r="O40" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <v>1326458866</v>
       </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4" t="s">
+      <c r="T40" s="4"/>
+      <c r="U40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="4" t="s">
+      <c r="V40" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5183,34 +5267,33 @@
         <v>34</v>
       </c>
       <c r="O41" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>195130</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>1379614838</v>
       </c>
-      <c r="S41" s="4" t="s">
+      <c r="T41" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="T41" s="4" t="s">
+      <c r="U41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U41" s="4" t="s">
+      <c r="V41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5250,34 +5333,33 @@
         <v>11</v>
       </c>
       <c r="O42" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="Q42" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <v>1385914357</v>
       </c>
-      <c r="S42" s="4" t="s">
+      <c r="T42" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="T42" s="4" t="s">
+      <c r="U42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U42" s="4" t="s">
+      <c r="V42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5317,32 +5399,31 @@
         <v>25</v>
       </c>
       <c r="O43" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P43" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>1387705366</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="T43" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="T43" s="4" t="s">
+      <c r="U43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U43" s="4" t="s">
+      <c r="V43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5382,28 +5463,31 @@
         <v>100</v>
       </c>
       <c r="O44" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <v>1450430762</v>
       </c>
-      <c r="S44" s="4" t="s">
+      <c r="T44" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T44" s="4" t="s">
+      <c r="U44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U44" s="4" t="s">
+      <c r="V44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5443,34 +5527,33 @@
         <v>66</v>
       </c>
       <c r="O45" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P45" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="R45" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <v>1379362795</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="T45" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="T45" s="4" t="s">
+      <c r="U45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U45" s="4" t="s">
+      <c r="V45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5510,28 +5593,31 @@
         <v>83</v>
       </c>
       <c r="O46" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <v>159753</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="R46" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <v>1332092281</v>
       </c>
-      <c r="S46" s="4" t="s">
+      <c r="T46" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="T46" s="4" t="s">
+      <c r="U46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U46" s="4" t="s">
+      <c r="V46" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5571,28 +5657,31 @@
         <v>77</v>
       </c>
       <c r="O47" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="R47" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>1383298674</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="T47" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="T47" s="4" t="s">
+      <c r="U47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="4" t="s">
+      <c r="V47" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5634,34 +5723,37 @@
         <v>117</v>
       </c>
       <c r="O48" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P48" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="Q48" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="R48" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <v>1383646866</v>
       </c>
-      <c r="S48" s="4" t="s">
+      <c r="T48" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="T48" s="4" t="s">
+      <c r="U48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U48" s="4" t="s">
+      <c r="V48" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V48" s="4" t="s">
+      <c r="W48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W48" s="4" t="s">
+      <c r="X48" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5701,28 +5793,31 @@
         <v>58</v>
       </c>
       <c r="O49" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P49" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="R49" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>1339609410</v>
       </c>
-      <c r="S49" s="4" t="s">
+      <c r="T49" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T49" s="4" t="s">
+      <c r="U49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U49" s="4" t="s">
+      <c r="V49" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5766,34 +5861,37 @@
         <v>105</v>
       </c>
       <c r="O50" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P50" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="R50" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <v>1400565399</v>
       </c>
-      <c r="S50" s="4" t="s">
+      <c r="T50" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="T50" s="4" t="s">
+      <c r="U50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U50" s="4" t="s">
+      <c r="V50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="W50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W50" s="4" t="s">
+      <c r="X50" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5835,34 +5933,33 @@
         <v>2</v>
       </c>
       <c r="O51" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P51" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="Q51" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="R51" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <v>1362400157</v>
       </c>
-      <c r="S51" s="4" t="s">
+      <c r="T51" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="T51" s="4" t="s">
+      <c r="U51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U51" s="4" t="s">
+      <c r="V51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W51" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5902,28 +5999,31 @@
         <v>110</v>
       </c>
       <c r="O52" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P52" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="Q52" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="R52" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <v>1391590899</v>
       </c>
-      <c r="S52" s="4" t="s">
+      <c r="T52" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="T52" s="4" t="s">
+      <c r="U52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="4" t="s">
+      <c r="V52" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5965,34 +6065,33 @@
         <v>68</v>
       </c>
       <c r="O53" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="R53" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="R53" s="4">
+      <c r="S53" s="4">
         <v>1391718992</v>
       </c>
-      <c r="S53" s="4" t="s">
+      <c r="T53" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="T53" s="4" t="s">
+      <c r="U53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U53" s="4" t="s">
+      <c r="V53" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6034,28 +6133,31 @@
         <v>121</v>
       </c>
       <c r="O54" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P54" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="Q54" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="Q54" s="4" t="s">
+      <c r="R54" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <v>1504018979</v>
       </c>
-      <c r="S54" s="4" t="s">
+      <c r="T54" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="T54" s="4" t="s">
+      <c r="U54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U54" s="4" t="s">
+      <c r="V54" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6091,28 +6193,31 @@
         <v>153</v>
       </c>
       <c r="O55" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P55" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="R55" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <v>1540302465</v>
       </c>
-      <c r="S55" s="4" t="s">
+      <c r="T55" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="T55" s="4" t="s">
+      <c r="U55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U55" s="4" t="s">
+      <c r="V55" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -6152,34 +6257,33 @@
         <v>31</v>
       </c>
       <c r="O56" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="R56" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S56" s="4">
         <v>1379869346</v>
       </c>
-      <c r="S56" s="4" t="s">
+      <c r="T56" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="T56" s="4" t="s">
+      <c r="U56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U56" s="4" t="s">
+      <c r="V56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6215,28 +6319,31 @@
         <v>202</v>
       </c>
       <c r="O57" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P57" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="P57" s="4">
+      <c r="Q57" s="4">
         <v>27101995</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="R57" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <v>1598691193</v>
       </c>
-      <c r="S57" s="4" t="s">
+      <c r="T57" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="T57" s="4" t="s">
+      <c r="U57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U57" s="4" t="s">
+      <c r="V57" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6276,26 +6383,29 @@
         <v>43</v>
       </c>
       <c r="O58" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P58" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4" t="s">
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <v>1579788530</v>
       </c>
-      <c r="S58" s="4" t="s">
+      <c r="T58" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T58" s="4" t="s">
+      <c r="U58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U58" s="4" t="s">
+      <c r="V58" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6333,34 +6443,37 @@
         <v>111</v>
       </c>
       <c r="O59" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P59" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="P59" s="4" t="s">
+      <c r="Q59" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="Q59" s="4" t="s">
+      <c r="R59" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <v>1388065026</v>
       </c>
-      <c r="S59" s="4" t="s">
+      <c r="T59" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="T59" s="4" t="s">
+      <c r="U59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U59" s="4" t="s">
+      <c r="V59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V59" s="4" t="s">
+      <c r="W59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W59" s="4" t="s">
+      <c r="X59" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6398,32 +6511,35 @@
         <v>133</v>
       </c>
       <c r="O60" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P60" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4" t="s">
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <v>1443981444</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="T60" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="T60" s="4" t="s">
+      <c r="U60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="V60" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="W60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W60" s="4" t="s">
+      <c r="X60" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6461,28 +6577,31 @@
         <v>165</v>
       </c>
       <c r="O61" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="P61" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="Q61" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="Q61" s="4" t="s">
+      <c r="R61" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <v>1571567681</v>
       </c>
-      <c r="S61" s="4" t="s">
+      <c r="T61" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="T61" s="4" t="s">
+      <c r="U61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U61" s="4" t="s">
+      <c r="V61" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6524,28 +6643,31 @@
         <v>24</v>
       </c>
       <c r="O62" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P62" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="Q62" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="Q62" s="4" t="s">
+      <c r="R62" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <v>1340271828</v>
       </c>
-      <c r="S62" s="4" t="s">
+      <c r="T62" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="T62" s="4" t="s">
+      <c r="U62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U62" s="4" t="s">
+      <c r="V62" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6583,34 +6705,33 @@
         <v>101</v>
       </c>
       <c r="O63" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P63" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="Q63" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="Q63" s="4" t="s">
+      <c r="R63" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <v>1567371484</v>
       </c>
-      <c r="S63" s="4" t="s">
+      <c r="T63" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="T63" s="4" t="s">
+      <c r="U63" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U63" s="4" t="s">
+      <c r="V63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W63" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6650,34 +6771,33 @@
         <v>122</v>
       </c>
       <c r="O64" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P64" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="P64" s="4" t="s">
+      <c r="Q64" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="Q64" s="4" t="s">
+      <c r="R64" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <v>1327395861</v>
       </c>
-      <c r="S64" s="4" t="s">
+      <c r="T64" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="T64" s="4" t="s">
+      <c r="U64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U64" s="4" t="s">
+      <c r="V64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W64" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6717,34 +6837,37 @@
         <v>35</v>
       </c>
       <c r="O65" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="P65" s="4" t="s">
+      <c r="Q65" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="Q65" s="4" t="s">
+      <c r="R65" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <v>1378482838</v>
       </c>
-      <c r="S65" s="4" t="s">
+      <c r="T65" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="T65" s="4" t="s">
+      <c r="U65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U65" s="4" t="s">
+      <c r="V65" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V65" s="4" t="s">
+      <c r="W65" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W65" s="4" t="s">
+      <c r="X65" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6782,26 +6905,29 @@
         <v>163</v>
       </c>
       <c r="O66" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P66" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4" t="s">
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="R66" s="4">
+      <c r="S66" s="4">
         <v>1568266228</v>
       </c>
-      <c r="S66" s="4" t="s">
+      <c r="T66" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T66" s="4" t="s">
+      <c r="U66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U66" s="4" t="s">
+      <c r="V66" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6839,34 +6965,33 @@
         <v>156</v>
       </c>
       <c r="O67" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P67" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="P67" s="4" t="s">
+      <c r="Q67" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="Q67" s="4" t="s">
+      <c r="R67" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="R67" s="4">
+      <c r="S67" s="4">
         <v>1538080932</v>
       </c>
-      <c r="S67" s="4" t="s">
+      <c r="T67" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="T67" s="4" t="s">
+      <c r="U67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U67" s="4" t="s">
+      <c r="V67" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W67" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -6906,34 +7031,33 @@
         <v>53</v>
       </c>
       <c r="O68" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P68" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="P68" s="4">
+      <c r="Q68" s="4">
         <v>19612008</v>
       </c>
-      <c r="Q68" s="4" t="s">
+      <c r="R68" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <v>1342436031</v>
       </c>
-      <c r="S68" s="4" t="s">
+      <c r="T68" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T68" s="4" t="s">
+      <c r="U68" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U68" s="4" t="s">
+      <c r="V68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V68" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W68" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6971,30 +7095,33 @@
         <v>94</v>
       </c>
       <c r="O69" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P69" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4" t="s">
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <v>1443516113</v>
       </c>
-      <c r="S69" s="4" t="s">
+      <c r="T69" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="T69" s="4" t="s">
+      <c r="U69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U69" s="4" t="s">
+      <c r="V69" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V69" s="4" t="s">
+      <c r="W69" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W69" s="4"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7032,28 +7159,31 @@
         <v>201</v>
       </c>
       <c r="O70" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="P70" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="Q70" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="Q70" s="4" t="s">
+      <c r="R70" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="R70" s="4">
+      <c r="S70" s="4">
         <v>1579540571</v>
       </c>
-      <c r="S70" s="4" t="s">
+      <c r="T70" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="T70" s="4" t="s">
+      <c r="U70" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U70" s="4" t="s">
+      <c r="V70" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7093,26 +7223,29 @@
         <v>49</v>
       </c>
       <c r="O71" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="P71" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4" t="s">
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="R71" s="4">
+      <c r="S71" s="4">
         <v>1413809169</v>
       </c>
-      <c r="S71" s="4" t="s">
+      <c r="T71" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="T71" s="4" t="s">
+      <c r="U71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U71" s="4" t="s">
+      <c r="V71" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7152,34 +7285,33 @@
         <v>36</v>
       </c>
       <c r="O72" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P72" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="P72" s="4" t="s">
+      <c r="Q72" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="Q72" s="4" t="s">
+      <c r="R72" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="R72" s="4">
+      <c r="S72" s="4">
         <v>1382003564</v>
       </c>
-      <c r="S72" s="4" t="s">
+      <c r="T72" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="T72" s="4" t="s">
+      <c r="U72" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U72" s="4" t="s">
+      <c r="V72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W72" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7219,34 +7351,33 @@
         <v>87</v>
       </c>
       <c r="O73" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P73" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="P73" s="4" t="s">
+      <c r="Q73" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="Q73" s="4" t="s">
+      <c r="R73" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="R73" s="4">
+      <c r="S73" s="4">
         <v>1478158577</v>
       </c>
-      <c r="S73" s="4" t="s">
+      <c r="T73" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="T73" s="4" t="s">
+      <c r="U73" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U73" s="4" t="s">
+      <c r="V73" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V73" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W73" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7286,28 +7417,31 @@
         <v>82</v>
       </c>
       <c r="O74" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P74" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="P74" s="4">
+      <c r="Q74" s="4">
         <v>23051971</v>
       </c>
-      <c r="Q74" s="4" t="s">
+      <c r="R74" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="R74" s="4">
+      <c r="S74" s="4">
         <v>1395657474</v>
       </c>
-      <c r="S74" s="4" t="s">
+      <c r="T74" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="T74" s="4" t="s">
+      <c r="U74" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U74" s="4" t="s">
+      <c r="V74" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7349,34 +7483,37 @@
         <v>18</v>
       </c>
       <c r="O75" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P75" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="P75" s="4" t="s">
+      <c r="Q75" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="Q75" s="4" t="s">
+      <c r="R75" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="R75" s="4">
+      <c r="S75" s="4">
         <v>1382442938</v>
       </c>
-      <c r="S75" s="4" t="s">
+      <c r="T75" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="T75" s="4" t="s">
+      <c r="U75" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U75" s="4" t="s">
+      <c r="V75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V75" s="4" t="s">
+      <c r="W75" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W75" s="4" t="s">
+      <c r="X75" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7416,32 +7553,35 @@
         <v>61</v>
       </c>
       <c r="O76" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P76" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="P76" s="4" t="s">
+      <c r="Q76" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="Q76" s="4" t="s">
+      <c r="R76" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="R76" s="4">
+      <c r="S76" s="4">
         <v>1401866847</v>
       </c>
-      <c r="S76" s="4" t="s">
+      <c r="T76" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="T76" s="4" t="s">
+      <c r="U76" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U76" s="4" t="s">
+      <c r="V76" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V76" s="4" t="s">
+      <c r="W76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W76" s="4"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76" s="4"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7481,28 +7621,31 @@
         <v>73</v>
       </c>
       <c r="O77" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P77" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="P77" s="4" t="s">
+      <c r="Q77" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="Q77" s="4" t="s">
+      <c r="R77" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="R77" s="4">
+      <c r="S77" s="4">
         <v>1389272852</v>
       </c>
-      <c r="S77" s="4" t="s">
+      <c r="T77" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="T77" s="4" t="s">
+      <c r="U77" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U77" s="4" t="s">
+      <c r="V77" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7544,28 +7687,31 @@
         <v>125</v>
       </c>
       <c r="O78" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P78" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="P78" s="4" t="s">
+      <c r="Q78" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="Q78" s="4" t="s">
+      <c r="R78" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="R78" s="4">
+      <c r="S78" s="4">
         <v>1389968352</v>
       </c>
-      <c r="S78" s="4" t="s">
+      <c r="T78" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="T78" s="4" t="s">
+      <c r="U78" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U78" s="4" t="s">
+      <c r="V78" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7605,32 +7751,31 @@
         <v>33</v>
       </c>
       <c r="O79" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P79" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="P79" s="4" t="s">
+      <c r="Q79" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="Q79" s="4" t="s">
+      <c r="R79" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4" t="s">
+      <c r="S79" s="4"/>
+      <c r="T79" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="T79" s="4" t="s">
+      <c r="U79" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U79" s="4" t="s">
+      <c r="V79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V79" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W79" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7666,28 +7811,31 @@
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P80" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="P80" s="4">
+      <c r="Q80" s="4">
         <v>27071983</v>
       </c>
-      <c r="Q80" s="4" t="s">
+      <c r="R80" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="R80" s="4">
+      <c r="S80" s="4">
         <v>1331899843</v>
       </c>
-      <c r="S80" s="4" t="s">
+      <c r="T80" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="T80" s="4" t="s">
+      <c r="U80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U80" s="4" t="s">
+      <c r="V80" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7729,26 +7877,29 @@
         <v>74</v>
       </c>
       <c r="O81" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P81" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4" t="s">
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="R81" s="4">
+      <c r="S81" s="4">
         <v>1332220467</v>
       </c>
-      <c r="S81" s="4" t="s">
+      <c r="T81" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T81" s="4" t="s">
+      <c r="U81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U81" s="4" t="s">
+      <c r="V81" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7788,28 +7939,31 @@
         <v>7</v>
       </c>
       <c r="O82" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P82" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="Q82" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="Q82" s="4" t="s">
+      <c r="R82" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="R82" s="4">
+      <c r="S82" s="4">
         <v>1332824847</v>
       </c>
-      <c r="S82" s="4" t="s">
+      <c r="T82" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="T82" s="4" t="s">
+      <c r="U82" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U82" s="4" t="s">
+      <c r="V82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7849,34 +8003,33 @@
         <v>80</v>
       </c>
       <c r="O83" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P83" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="P83" s="4" t="s">
+      <c r="Q83" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="Q83" s="4" t="s">
+      <c r="R83" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="R83" s="4">
+      <c r="S83" s="4">
         <v>1409581728</v>
       </c>
-      <c r="S83" s="4" t="s">
+      <c r="T83" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="T83" s="4" t="s">
+      <c r="U83" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U83" s="4" t="s">
+      <c r="V83" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V83" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W83" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7914,34 +8067,33 @@
         <v>69</v>
       </c>
       <c r="O84" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P84" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="P84" s="4" t="s">
+      <c r="Q84" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="Q84" s="4" t="s">
+      <c r="R84" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="R84" s="4">
+      <c r="S84" s="4">
         <v>1382601253</v>
       </c>
-      <c r="S84" s="4" t="s">
+      <c r="T84" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="T84" s="4" t="s">
+      <c r="U84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U84" s="4" t="s">
+      <c r="V84" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V84" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W84" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7977,28 +8129,31 @@
         <v>203</v>
       </c>
       <c r="O85" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P85" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="P85" s="4" t="s">
+      <c r="Q85" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="Q85" s="4" t="s">
+      <c r="R85" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="R85" s="4">
+      <c r="S85" s="4">
         <v>1597953282</v>
       </c>
-      <c r="S85" s="4" t="s">
+      <c r="T85" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="T85" s="4" t="s">
+      <c r="U85" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U85" s="4" t="s">
+      <c r="V85" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -8038,34 +8193,37 @@
         <v>13</v>
       </c>
       <c r="O86" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P86" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="Q86" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="Q86" s="4" t="s">
+      <c r="R86" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="R86" s="4">
+      <c r="S86" s="4">
         <v>1384345887</v>
       </c>
-      <c r="S86" s="4" t="s">
+      <c r="T86" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="T86" s="4" t="s">
+      <c r="U86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U86" s="4" t="s">
+      <c r="V86" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V86" s="4" t="s">
+      <c r="W86" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W86" s="4" t="s">
+      <c r="X86" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -8105,28 +8263,31 @@
         <v>152</v>
       </c>
       <c r="O87" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P87" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="P87" s="4" t="s">
+      <c r="Q87" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="Q87" s="4" t="s">
+      <c r="R87" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="R87" s="4">
+      <c r="S87" s="4">
         <v>1524047577</v>
       </c>
-      <c r="S87" s="4" t="s">
+      <c r="T87" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="T87" s="4" t="s">
+      <c r="U87" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U87" s="4" t="s">
+      <c r="V87" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -8168,34 +8329,33 @@
         <v>16</v>
       </c>
       <c r="O88" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P88" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="P88" s="4" t="s">
+      <c r="Q88" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="Q88" s="4" t="s">
+      <c r="R88" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="R88" s="4">
+      <c r="S88" s="4">
         <v>1388245178</v>
       </c>
-      <c r="S88" s="4" t="s">
+      <c r="T88" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="T88" s="4" t="s">
+      <c r="U88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U88" s="4" t="s">
+      <c r="V88" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V88" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W88" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -8237,34 +8397,33 @@
         <v>38</v>
       </c>
       <c r="O89" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P89" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="P89" s="4" t="s">
+      <c r="Q89" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="Q89" s="4" t="s">
+      <c r="R89" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="R89" s="4">
+      <c r="S89" s="4">
         <v>1331927837</v>
       </c>
-      <c r="S89" s="4" t="s">
+      <c r="T89" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="T89" s="4" t="s">
+      <c r="U89" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U89" s="4" t="s">
+      <c r="V89" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W89" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -8302,34 +8461,33 @@
         <v>10</v>
       </c>
       <c r="O90" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P90" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="P90" s="4" t="s">
+      <c r="Q90" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="Q90" s="4" t="s">
+      <c r="R90" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="R90" s="4">
+      <c r="S90" s="4">
         <v>1392113965</v>
       </c>
-      <c r="S90" s="4" t="s">
+      <c r="T90" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="T90" s="4" t="s">
+      <c r="U90" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U90" s="4" t="s">
+      <c r="V90" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V90" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W90" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -8367,34 +8525,33 @@
         <v>23</v>
       </c>
       <c r="O91" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P91" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="P91" s="4">
+      <c r="Q91" s="4">
         <v>6062006</v>
       </c>
-      <c r="Q91" s="4" t="s">
+      <c r="R91" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="R91" s="4">
+      <c r="S91" s="4">
         <v>1442415047</v>
       </c>
-      <c r="S91" s="4" t="s">
+      <c r="T91" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="T91" s="4" t="s">
+      <c r="U91" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U91" s="4" t="s">
+      <c r="V91" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V91" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W91" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -8432,28 +8589,31 @@
         <v>164</v>
       </c>
       <c r="O92" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P92" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="P92" s="4" t="s">
+      <c r="Q92" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="Q92" s="4" t="s">
+      <c r="R92" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="R92" s="4">
+      <c r="S92" s="4">
         <v>1568748538</v>
       </c>
-      <c r="S92" s="4" t="s">
+      <c r="T92" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="T92" s="4" t="s">
+      <c r="U92" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U92" s="4" t="s">
+      <c r="V92" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -8493,34 +8653,33 @@
         <v>51</v>
       </c>
       <c r="O93" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="P93" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="P93" s="4" t="s">
+      <c r="Q93" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="Q93" s="4" t="s">
+      <c r="R93" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="R93" s="4">
+      <c r="S93" s="4">
         <v>1383506273</v>
       </c>
-      <c r="S93" s="4" t="s">
+      <c r="T93" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="T93" s="4" t="s">
+      <c r="U93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U93" s="4" t="s">
+      <c r="V93" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V93" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W93" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -8554,24 +8713,27 @@
       </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="P94" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="P94" s="4" t="s">
+      <c r="Q94" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="Q94" s="4" t="s">
+      <c r="R94" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="R94" s="4">
+      <c r="S94" s="4">
         <v>1601475061</v>
       </c>
-      <c r="S94" s="4" t="s">
+      <c r="T94" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="T94" s="4" t="s">
+      <c r="U94" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U94" s="4" t="s">
+      <c r="V94" s="4" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/teachers.xlsx
+++ b/data/teachers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\ais-dsi.loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/domains/ais-dsi.loc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF38590E-B009-D84E-B810-D31B7152F4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="732">
   <si>
     <t>#</t>
   </si>
@@ -2228,7 +2229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2561,41 +2562,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T58" workbookViewId="0">
-      <selection activeCell="X93" sqref="X93"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="109.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="56.85546875" customWidth="1"/>
-    <col min="20" max="20" width="85.5703125" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56.83203125" customWidth="1"/>
+    <col min="20" max="20" width="85.5" customWidth="1"/>
+    <col min="21" max="21" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2735,9 +2736,11 @@
       <c r="W2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2991,7 +2994,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3247,7 +3250,9 @@
       <c r="U10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="W10" s="4" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +3260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3321,7 +3326,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3389,7 +3394,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3521,7 +3526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3587,7 +3592,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3653,7 +3658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3721,7 +3726,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3781,7 +3786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3843,7 +3848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3977,9 +3982,11 @@
       <c r="W21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4041,7 +4048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4111,7 +4118,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4307,7 +4314,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4375,7 +4382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4437,7 +4444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4579,7 +4586,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4839,7 +4846,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4905,7 +4912,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4969,7 +4976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5035,7 +5042,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5163,7 +5170,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5227,7 +5234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5293,7 +5300,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5359,7 +5366,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5423,7 +5430,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5487,7 +5494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5553,7 +5560,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5617,7 +5624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5681,7 +5688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5753,7 +5760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5817,7 +5824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5891,7 +5898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5959,7 +5966,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -6023,7 +6030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6091,7 +6098,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6157,7 +6164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6217,7 +6224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -6283,7 +6290,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6343,7 +6350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6539,7 +6546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6601,7 +6608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6667,7 +6674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6731,7 +6738,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6797,7 +6804,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6867,7 +6874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6927,7 +6934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6991,7 +6998,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7057,7 +7064,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7119,9 +7126,11 @@
       <c r="W69" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X69" s="4"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X69" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7183,7 +7192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7245,7 +7254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7311,7 +7320,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7377,7 +7386,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7441,7 +7450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7513,7 +7522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7579,9 +7588,11 @@
       <c r="W76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X76" s="4"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X76" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7645,7 +7656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7711,7 +7722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7775,7 +7786,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7835,7 +7846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7899,7 +7910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7963,7 +7974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -8029,7 +8040,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -8093,7 +8104,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -8153,7 +8164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -8223,7 +8234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -8287,7 +8298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -8355,7 +8366,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -8423,7 +8434,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -8487,7 +8498,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -8551,7 +8562,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -8613,7 +8624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -8679,7 +8690,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>

--- a/data/teachers.xlsx
+++ b/data/teachers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/domains/ais-dsi.loc/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\ais-dsi.loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF38590E-B009-D84E-B810-D31B7152F4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="733">
   <si>
     <t>#</t>
   </si>
@@ -2224,13 +2223,16 @@
   </si>
   <si>
     <t>По совместительству</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2241,12 +2243,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2269,7 +2277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2277,10 +2285,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2562,41 +2573,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="T85" workbookViewId="0">
+      <selection activeCell="X93" sqref="X93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="109.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="56.83203125" customWidth="1"/>
-    <col min="20" max="20" width="85.5" customWidth="1"/>
-    <col min="21" max="21" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56.85546875" customWidth="1"/>
+    <col min="20" max="20" width="85.42578125" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2686,8 +2697,8 @@
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
-        <v>614635200</v>
+      <c r="F2" s="5">
+        <v>32683</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>21</v>
@@ -2740,7 +2751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2756,8 +2767,8 @@
       <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4">
-        <v>499381200</v>
+      <c r="F3" s="5">
+        <v>31349</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>32</v>
@@ -2800,7 +2811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2816,8 +2827,8 @@
       <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4">
-        <v>665528400</v>
+      <c r="F4" s="5">
+        <v>33272</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>37</v>
@@ -2864,7 +2875,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2880,8 +2891,8 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4">
-        <v>647553600</v>
+      <c r="F5" s="5">
+        <v>33064</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
@@ -2928,7 +2939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2944,8 +2955,8 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4">
-        <v>-181710000</v>
+      <c r="F6" s="5">
+        <v>23466</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>48</v>
@@ -2994,7 +3005,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3010,8 +3021,8 @@
       <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4">
-        <v>349563600</v>
+      <c r="F7" s="5">
+        <v>29615</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>51</v>
@@ -3058,7 +3069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3074,8 +3085,8 @@
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4">
-        <v>138056400</v>
+      <c r="F8" s="5">
+        <v>27167</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>56</v>
@@ -3122,7 +3133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3138,8 +3149,8 @@
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="4">
-        <v>660344400</v>
+      <c r="F9" s="5">
+        <v>33212</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>60</v>
@@ -3192,7 +3203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3208,8 +3219,8 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
-        <v>274654800</v>
+      <c r="F10" s="5">
+        <v>28748</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>66</v>
@@ -3260,7 +3271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3276,8 +3287,8 @@
       <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4">
-        <v>307227600</v>
+      <c r="F11" s="5">
+        <v>29125</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>71</v>
@@ -3326,7 +3337,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3342,8 +3353,8 @@
       <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4">
-        <v>-629002800</v>
+      <c r="F12" s="5">
+        <v>18289</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>75</v>
@@ -3394,7 +3405,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3410,8 +3421,8 @@
       <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4">
-        <v>509490000</v>
+      <c r="F13" s="5">
+        <v>31466</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>80</v>
@@ -3456,7 +3467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3472,8 +3483,8 @@
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="4">
-        <v>-570423600</v>
+      <c r="F14" s="5">
+        <v>18967</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>85</v>
@@ -3526,7 +3537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3542,8 +3553,8 @@
       <c r="E15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4">
-        <v>-397882800</v>
+      <c r="F15" s="5">
+        <v>20964</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>90</v>
@@ -3592,7 +3603,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3608,8 +3619,8 @@
       <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="4">
-        <v>-458103600</v>
+      <c r="F16" s="5">
+        <v>20267</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>94</v>
@@ -3658,7 +3669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3674,8 +3685,8 @@
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4">
-        <v>-488084400</v>
+      <c r="F17" s="5">
+        <v>19920</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>97</v>
@@ -3726,7 +3737,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3742,8 +3753,8 @@
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="4">
-        <v>444690000</v>
+      <c r="F18" s="5">
+        <v>30716</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>102</v>
@@ -3786,7 +3797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3802,8 +3813,8 @@
       <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="4">
-        <v>254005200</v>
+      <c r="F19" s="5">
+        <v>28509</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>105</v>
@@ -3848,7 +3859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3864,8 +3875,8 @@
       <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="4">
-        <v>-722055600</v>
+      <c r="F20" s="5">
+        <v>17212</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>109</v>
@@ -3914,7 +3925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3930,8 +3941,8 @@
       <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="4">
-        <v>-595134000</v>
+      <c r="F21" s="5">
+        <v>18681</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>114</v>
@@ -3986,7 +3997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4002,8 +4013,8 @@
       <c r="E22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="4">
-        <v>846187200</v>
+      <c r="F22" s="5">
+        <v>35363</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>119</v>
@@ -4048,7 +4059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4064,8 +4075,8 @@
       <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="4">
-        <v>532040400</v>
+      <c r="F23" s="5">
+        <v>31727</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>123</v>
@@ -4118,7 +4129,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4134,8 +4145,8 @@
       <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="4">
-        <v>-404622000</v>
+      <c r="F24" s="5">
+        <v>20886</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>127</v>
@@ -4180,7 +4191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4196,8 +4207,8 @@
       <c r="E25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="4">
-        <v>593816400</v>
+      <c r="F25" s="5">
+        <v>32442</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>130</v>
@@ -4246,7 +4257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4262,8 +4273,8 @@
       <c r="E26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="4">
-        <v>-362890800</v>
+      <c r="F26" s="5">
+        <v>21369</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>135</v>
@@ -4311,10 +4322,14 @@
       <c r="V26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4330,8 +4345,8 @@
       <c r="E27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="4">
-        <v>500677200</v>
+      <c r="F27" s="5">
+        <v>31364</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>140</v>
@@ -4382,7 +4397,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4398,8 +4413,8 @@
       <c r="E28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="4">
-        <v>682117200</v>
+      <c r="F28" s="5">
+        <v>33464</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>144</v>
@@ -4444,7 +4459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4460,8 +4475,8 @@
       <c r="E29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="4">
-        <v>-644986800</v>
+      <c r="F29" s="5">
+        <v>18104</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>148</v>
@@ -4516,7 +4531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4532,8 +4547,8 @@
       <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="4">
-        <v>-275454000</v>
+      <c r="F30" s="5">
+        <v>22381</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>154</v>
@@ -4586,7 +4601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4602,8 +4617,8 @@
       <c r="E31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="4">
-        <v>-265345200</v>
+      <c r="F31" s="5">
+        <v>22498</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>156</v>
@@ -4650,7 +4665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4666,8 +4681,8 @@
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="4">
-        <v>134514000</v>
+      <c r="F32" s="5">
+        <v>27126</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>160</v>
@@ -4714,7 +4729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4730,8 +4745,8 @@
       <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="4">
-        <v>-10465200</v>
+      <c r="F33" s="5">
+        <v>25448</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>164</v>
@@ -4782,7 +4797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4798,8 +4813,8 @@
       <c r="E34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="4">
-        <v>767476800</v>
+      <c r="F34" s="5">
+        <v>34452</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>167</v>
@@ -4846,7 +4861,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4862,8 +4877,8 @@
       <c r="E35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="4">
-        <v>-37854000</v>
+      <c r="F35" s="5">
+        <v>25131</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>170</v>
@@ -4912,7 +4927,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4928,8 +4943,8 @@
       <c r="E36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="4">
-        <v>-680842800</v>
+      <c r="F36" s="5">
+        <v>17689</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>172</v>
@@ -4976,7 +4991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4992,8 +5007,8 @@
       <c r="E37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="4">
-        <v>-629780400</v>
+      <c r="F37" s="5">
+        <v>18280</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>175</v>
@@ -5042,7 +5057,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5058,8 +5073,8 @@
       <c r="E38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="4">
-        <v>767476800</v>
+      <c r="F38" s="5">
+        <v>34452</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>179</v>
@@ -5104,7 +5119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5120,8 +5135,8 @@
       <c r="E39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="4">
-        <v>514324800</v>
+      <c r="F39" s="5">
+        <v>31522</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>182</v>
@@ -5170,7 +5185,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5186,8 +5201,8 @@
       <c r="E40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="4">
-        <v>-368161200</v>
+      <c r="F40" s="5">
+        <v>21308</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>184</v>
@@ -5234,7 +5249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5250,8 +5265,8 @@
       <c r="E41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="4">
-        <v>-573534000</v>
+      <c r="F41" s="5">
+        <v>18931</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>189</v>
@@ -5300,7 +5315,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5316,8 +5331,8 @@
       <c r="E42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="4">
-        <v>-221886000</v>
+      <c r="F42" s="5">
+        <v>23001</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>191</v>
@@ -5366,7 +5381,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5382,8 +5397,8 @@
       <c r="E43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="4">
-        <v>-316666800</v>
+      <c r="F43" s="5">
+        <v>21904</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>194</v>
@@ -5430,7 +5445,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5446,8 +5461,8 @@
       <c r="E44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="4">
-        <v>-445921200</v>
+      <c r="F44" s="5">
+        <v>20408</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>197</v>
@@ -5494,7 +5509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5510,8 +5525,8 @@
       <c r="E45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="4">
-        <v>19170000</v>
+      <c r="F45" s="5">
+        <v>25791</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>201</v>
@@ -5560,7 +5575,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5576,8 +5591,8 @@
       <c r="E46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="4">
-        <v>-563857200</v>
+      <c r="F46" s="5">
+        <v>19043</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>205</v>
@@ -5624,7 +5639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5640,8 +5655,8 @@
       <c r="E47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="4">
-        <v>-969937200</v>
+      <c r="F47" s="5">
+        <v>14343</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>208</v>
@@ -5688,7 +5703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5704,8 +5719,8 @@
       <c r="E48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="4">
-        <v>686700000</v>
+      <c r="F48" s="5">
+        <v>33517</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>213</v>
@@ -5760,7 +5775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5776,8 +5791,8 @@
       <c r="E49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="4">
-        <v>13640400</v>
+      <c r="F49" s="5">
+        <v>25727</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>217</v>
@@ -5824,7 +5839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5840,8 +5855,8 @@
       <c r="E50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="4">
-        <v>193438800</v>
+      <c r="F50" s="5">
+        <v>27808</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>220</v>
@@ -5898,7 +5913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5914,8 +5929,8 @@
       <c r="E51" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="4">
-        <v>-409719600</v>
+      <c r="F51" s="5">
+        <v>20827</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>225</v>
@@ -5966,7 +5981,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5982,8 +5997,8 @@
       <c r="E52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="4">
-        <v>-107751600</v>
+      <c r="F52" s="5">
+        <v>24322</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>230</v>
@@ -6030,7 +6045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6046,8 +6061,8 @@
       <c r="E53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="4">
-        <v>-120193200</v>
+      <c r="F53" s="5">
+        <v>24178</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>232</v>
@@ -6098,7 +6113,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6114,8 +6129,8 @@
       <c r="E54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="4">
-        <v>275864400</v>
+      <c r="F54" s="5">
+        <v>28762</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>235</v>
@@ -6164,7 +6179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6180,8 +6195,8 @@
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="4">
-        <v>851893200</v>
+      <c r="F55" s="5">
+        <v>35429</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>240</v>
@@ -6224,7 +6239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -6240,8 +6255,8 @@
       <c r="E56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="4">
-        <v>-800938800</v>
+      <c r="F56" s="5">
+        <v>16299</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>243</v>
@@ -6290,7 +6305,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6306,8 +6321,8 @@
       <c r="E57" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="4">
-        <v>814741200</v>
+      <c r="F57" s="5">
+        <v>34999</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>247</v>
@@ -6350,7 +6365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6366,8 +6381,8 @@
       <c r="E58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="4">
-        <v>-208407600</v>
+      <c r="F58" s="5">
+        <v>23157</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>250</v>
@@ -6412,7 +6427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6428,8 +6443,8 @@
       <c r="E59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="4">
-        <v>-93754800</v>
+      <c r="F59" s="5">
+        <v>24484</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>253</v>
@@ -6480,7 +6495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6496,8 +6511,8 @@
       <c r="E60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="4">
-        <v>674082000</v>
+      <c r="F60" s="5">
+        <v>33371</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>256</v>
@@ -6546,7 +6561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6562,8 +6577,8 @@
       <c r="E61" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="4">
-        <v>538434000</v>
+      <c r="F61" s="5">
+        <v>31801</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>260</v>
@@ -6608,7 +6623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6624,8 +6639,8 @@
       <c r="E62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="4">
-        <v>-695876400</v>
+      <c r="F62" s="5">
+        <v>17515</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>263</v>
@@ -6674,7 +6689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6690,8 +6705,8 @@
       <c r="E63" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="4">
-        <v>500245200</v>
+      <c r="F63" s="5">
+        <v>31359</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>266</v>
@@ -6738,7 +6753,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6754,8 +6769,8 @@
       <c r="E64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="4">
-        <v>254696400</v>
+      <c r="F64" s="5">
+        <v>28517</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>270</v>
@@ -6804,7 +6819,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6820,8 +6835,8 @@
       <c r="E65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="4">
-        <v>618350400</v>
+      <c r="F65" s="5">
+        <v>32726</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>272</v>
@@ -6874,7 +6889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6890,8 +6905,8 @@
       <c r="E66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="4">
-        <v>0</v>
+      <c r="F66" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>275</v>
@@ -6934,7 +6949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6950,8 +6965,8 @@
       <c r="E67" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="4">
-        <v>801950400</v>
+      <c r="F67" s="5">
+        <v>34851</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>278</v>
@@ -6998,7 +7013,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7014,8 +7029,8 @@
       <c r="E68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="4">
-        <v>-265950000</v>
+      <c r="F68" s="5">
+        <v>22491</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>280</v>
@@ -7064,7 +7079,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7080,8 +7095,8 @@
       <c r="E69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="4">
-        <v>501714000</v>
+      <c r="F69" s="5">
+        <v>31376</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>284</v>
@@ -7130,7 +7145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7146,8 +7161,8 @@
       <c r="E70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="4">
-        <v>772401600</v>
+      <c r="F70" s="5">
+        <v>34509</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>288</v>
@@ -7192,7 +7207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7208,8 +7223,8 @@
       <c r="E71" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="4">
-        <v>-947214000</v>
+      <c r="F71" s="5">
+        <v>14606</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>291</v>
@@ -7254,7 +7269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7270,8 +7285,8 @@
       <c r="E72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="4">
-        <v>421099200</v>
+      <c r="F72" s="5">
+        <v>30443</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>296</v>
@@ -7320,7 +7335,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7336,8 +7351,8 @@
       <c r="E73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="4">
-        <v>672526800</v>
+      <c r="F73" s="5">
+        <v>33353</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>300</v>
@@ -7386,7 +7401,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7402,8 +7417,8 @@
       <c r="E74" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="4">
-        <v>43794000</v>
+      <c r="F74" s="5">
+        <v>26076</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>303</v>
@@ -7450,7 +7465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7466,8 +7481,8 @@
       <c r="E75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="4">
-        <v>265410000</v>
+      <c r="F75" s="5">
+        <v>28641</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>305</v>
@@ -7522,7 +7537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7538,8 +7553,8 @@
       <c r="E76" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="4">
-        <v>411685200</v>
+      <c r="F76" s="5">
+        <v>30334</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>310</v>
@@ -7592,7 +7607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7608,8 +7623,8 @@
       <c r="E77" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F77" s="4">
-        <v>-407300400</v>
+      <c r="F77" s="5">
+        <v>20855</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>313</v>
@@ -7656,7 +7671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7672,8 +7687,8 @@
       <c r="E78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F78" s="4">
-        <v>-526964400</v>
+      <c r="F78" s="5">
+        <v>19470</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>317</v>
@@ -7722,7 +7737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7738,8 +7753,8 @@
       <c r="E79" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="4">
-        <v>702158400</v>
+      <c r="F79" s="5">
+        <v>33696</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>321</v>
@@ -7786,7 +7801,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7802,8 +7817,8 @@
       <c r="E80" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F80" s="4">
-        <v>428097600</v>
+      <c r="F80" s="5">
+        <v>30524</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>323</v>
@@ -7846,7 +7861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7862,8 +7877,8 @@
       <c r="E81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="4">
-        <v>-474174000</v>
+      <c r="F81" s="5">
+        <v>20081</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>325</v>
@@ -7910,7 +7925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7926,8 +7941,8 @@
       <c r="E82" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F82" s="4">
-        <v>-324270000</v>
+      <c r="F82" s="5">
+        <v>21816</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>328</v>
@@ -7974,7 +7989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7990,8 +8005,8 @@
       <c r="E83" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="4">
-        <v>521236800</v>
+      <c r="F83" s="5">
+        <v>31602</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>331</v>
@@ -8040,7 +8055,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -8056,8 +8071,8 @@
       <c r="E84" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F84" s="4">
-        <v>417474000</v>
+      <c r="F84" s="5">
+        <v>30401</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>334</v>
@@ -8104,7 +8119,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -8120,8 +8135,8 @@
       <c r="E85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="4">
-        <v>935524800</v>
+      <c r="F85" s="5">
+        <v>36397</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>337</v>
@@ -8164,7 +8179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -8180,8 +8195,8 @@
       <c r="E86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="4">
-        <v>-21438000</v>
+      <c r="F86" s="5">
+        <v>25321</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>340</v>
@@ -8234,7 +8249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -8250,8 +8265,8 @@
       <c r="E87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F87" s="4">
-        <v>431294400</v>
+      <c r="F87" s="5">
+        <v>30561</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>342</v>
@@ -8298,7 +8313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -8314,8 +8329,8 @@
       <c r="E88" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F88" s="4">
-        <v>-515991600</v>
+      <c r="F88" s="5">
+        <v>19597</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>344</v>
@@ -8366,7 +8381,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -8382,8 +8397,8 @@
       <c r="E89" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="4">
-        <v>-383972400</v>
+      <c r="F89" s="5">
+        <v>21125</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>348</v>
@@ -8434,7 +8449,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -8450,8 +8465,8 @@
       <c r="E90" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F90" s="4">
-        <v>433281600</v>
+      <c r="F90" s="5">
+        <v>30584</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>352</v>
@@ -8498,7 +8513,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -8514,8 +8529,8 @@
       <c r="E91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="4">
-        <v>508712400</v>
+      <c r="F91" s="5">
+        <v>31457</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>354</v>
@@ -8562,7 +8577,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -8578,8 +8593,8 @@
       <c r="E92" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="4">
-        <v>0</v>
+      <c r="F92" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>357</v>
@@ -8624,7 +8639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -8640,8 +8655,8 @@
       <c r="E93" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="4">
-        <v>-350794800</v>
+      <c r="F93" s="5">
+        <v>21509</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>360</v>
@@ -8690,7 +8705,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -8706,8 +8721,8 @@
       <c r="E94" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="4">
-        <v>779227200</v>
+      <c r="F94" s="5">
+        <v>34588</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>363</v>
